--- a/biology/Botanique/Ascotheca_paucinervia/Ascotheca_paucinervia.xlsx
+++ b/biology/Botanique/Ascotheca_paucinervia/Ascotheca_paucinervia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ascotheca paucinervia (T. Anderson ex C.B. Clarke) Heine est une espèce de plantes de la famille des Acanthaceae et du genre Ascotheca, présente en Afrique de l'Ouest, au Gabon et au Congo Brazzaville récemment découvert en janvier 2021(célèbre Oméka et al.,2021)
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe dressée pouvant atteindre 70 cm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe dressée pouvant atteindre 70 cm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (3 janvier 2018)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (3 janvier 2018) :
 variété Ascotheca paucinervia var. minor</t>
         </is>
       </c>
